--- a/SuppXLS/Scen_DomBioPot_EnSup.xlsx
+++ b/SuppXLS/Scen_DomBioPot_EnSup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E8362E-EFBA-4957-B066-BFF0BF910A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98B3FE2-16EB-47B7-ACAF-0BE65836FA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,6 @@
     <sheet name="BioenergySupply-EnhancedSupply" sheetId="18" r:id="rId2"/>
     <sheet name="Conversions" sheetId="19" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="Euro_GBP">#REF!</definedName>
-    <definedName name="TransportCHi">[1]TransportCost_Inputs!$D$59:$AD$74</definedName>
-    <definedName name="TransportCLo">[1]TransportCost_Inputs!$D$15:$AD$30</definedName>
-    <definedName name="TransportCMe">[1]TransportCost_Inputs!$D$37:$AD$52</definedName>
-    <definedName name="TransportInclude">[1]PickLists!$D$19</definedName>
-    <definedName name="Years">[1]PickLists!$G$9:$G$34</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -529,8 +518,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1072,19 +1061,19 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1236,7 +1225,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1257,7 +1246,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1328,498 +1317,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Front Sheet"/>
-      <sheetName val="Overview"/>
-      <sheetName val="Set_Scenarios"/>
-      <sheetName val="Results"/>
-      <sheetName val="Targets"/>
-      <sheetName val="Liquid waste cost curve"/>
-      <sheetName val="Wheat,OSR Cost Curve"/>
-      <sheetName val="Willow, Miscanthus Cost Curve"/>
-      <sheetName val="Forestry&amp;Solid BMSW Cost Curve"/>
-      <sheetName val="Cost Curve"/>
-      <sheetName val="Resource Price and Quantity"/>
-      <sheetName val="Resource Summary"/>
-      <sheetName val="Graph Setup"/>
-      <sheetName val="Partial Graphs Setup"/>
-      <sheetName val="2020"/>
-      <sheetName val="2030"/>
-      <sheetName val="PickLists"/>
-      <sheetName val="Forest thinning"/>
-      <sheetName val="Forest_thinning_Inputs"/>
-      <sheetName val="Sawmill residues"/>
-      <sheetName val="Sawmill_residues_Inputs"/>
-      <sheetName val="Waste Wood"/>
-      <sheetName val="Waste_Wood_Inputs"/>
-      <sheetName val="Solid BMSW"/>
-      <sheetName val="Solid_BMSW_Inputs"/>
-      <sheetName val="BMSW"/>
-      <sheetName val="BMSW_Inputs"/>
-      <sheetName val="Tallow"/>
-      <sheetName val="Tallow_Inputs"/>
-      <sheetName val="RVO"/>
-      <sheetName val="RVO_Inputs"/>
-      <sheetName val="Straw"/>
-      <sheetName val="Straw_Inputs"/>
-      <sheetName val="Cattle"/>
-      <sheetName val="Cattle_Inputs "/>
-      <sheetName val="Pigs"/>
-      <sheetName val="Pig_Inputs "/>
-      <sheetName val="Willow"/>
-      <sheetName val="Willow_Inputs"/>
-      <sheetName val="Miscanthus"/>
-      <sheetName val="Miscanthus_Inputs"/>
-      <sheetName val="Wheat"/>
-      <sheetName val="Wheat_Inputs"/>
-      <sheetName val="OSR"/>
-      <sheetName val="OSR_Inputs"/>
-      <sheetName val="Grass_silage"/>
-      <sheetName val="Grass_silage_Inputs"/>
-      <sheetName val="Industrial Food"/>
-      <sheetName val="Industrial Food_Inputs"/>
-      <sheetName val="TransportCost_Inputs"/>
-      <sheetName val="Import Price and Quantity"/>
-      <sheetName val="Graphs for report"/>
-      <sheetName val="DefaultValues"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
-        <row r="9">
-          <cell r="G9">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>2011</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11">
-            <v>2012</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>2014</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>2015</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17">
-            <v>2018</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18">
-            <v>2019</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>1</v>
-          </cell>
-          <cell r="G19">
-            <v>2020</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20">
-            <v>2021</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21">
-            <v>2022</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>2024</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>2025</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>2026</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26">
-            <v>2027</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="G27">
-            <v>2028</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="G28">
-            <v>2029</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="G29">
-            <v>2030</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="G30">
-            <v>2031</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="G31">
-            <v>2032</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="G32">
-            <v>2033</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="G33">
-            <v>2034</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="G34">
-            <v>2035</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49">
-        <row r="15">
-          <cell r="D15" t="str">
-            <v>Forest</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16" t="str">
-            <v>Sawmill</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17" t="str">
-            <v>PCRW</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18" t="str">
-            <v>SolidBMSW</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19" t="str">
-            <v>Tallow</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20" t="str">
-            <v>RVO</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21" t="str">
-            <v>Straw</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>Cattle</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23" t="str">
-            <v>Pig</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24" t="str">
-            <v>BMSW</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25" t="str">
-            <v>Willow</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26" t="str">
-            <v>Miscanthus</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>Wheat</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>OSR</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>Anaerobic</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>IndFood</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>Forest</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>Sawmill</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>PCRW</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40" t="str">
-            <v>SolidBMSW</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41" t="str">
-            <v>Tallow</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42" t="str">
-            <v>RVO</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43" t="str">
-            <v>Straw</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44" t="str">
-            <v>Cattle</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45" t="str">
-            <v>Pig</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46" t="str">
-            <v>BMSW</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47" t="str">
-            <v>Willow</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48" t="str">
-            <v>Miscanthus</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49" t="str">
-            <v>Wheat</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50" t="str">
-            <v>OSR</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51" t="str">
-            <v>Anaerobic</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52" t="str">
-            <v>IndFood</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59" t="str">
-            <v>Forest</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60" t="str">
-            <v>Sawmill</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61" t="str">
-            <v>PCRW</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62" t="str">
-            <v>SolidBMSW</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63" t="str">
-            <v>Tallow</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64" t="str">
-            <v>RVO</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65" t="str">
-            <v>Straw</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66" t="str">
-            <v>Cattle</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67" t="str">
-            <v>Pig</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68" t="str">
-            <v>BMSW</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69" t="str">
-            <v>Willow</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70" t="str">
-            <v>Miscanthus</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71" t="str">
-            <v>Wheat</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72" t="str">
-            <v>OSR</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73" t="str">
-            <v>Anaerobic</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74" t="str">
-            <v>IndFood</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23268,7 +22765,7 @@
   <dimension ref="A1:DO69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:XFD1048576"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45665,15 +45162,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -45819,6 +45307,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -45826,14 +45323,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C083082B-EF42-45FD-A093-4B4ABFE76D72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E63631BC-E8BC-47EF-A687-5ABCBF5D4D56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45851,6 +45340,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C083082B-EF42-45FD-A093-4B4ABFE76D72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82F93EDD-0FEC-481F-BAB6-9C54FA72D22C}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_DomBioPot_EnSup.xlsx
+++ b/SuppXLS/Scen_DomBioPot_EnSup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98B3FE2-16EB-47B7-ACAF-0BE65836FA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88DE528-B15E-46FC-A801-580400679031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="3615" windowWidth="20670" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BioenergySupply-Baseline" sheetId="17" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="111">
   <si>
     <t>ktoe to PJ</t>
   </si>
@@ -511,6 +511,15 @@
   </si>
   <si>
     <t>ACTCOST</t>
+  </si>
+  <si>
+    <t>_S1</t>
+  </si>
+  <si>
+    <t>_S2</t>
+  </si>
+  <si>
+    <t>_S3</t>
   </si>
 </sst>
 </file>
@@ -1647,29 +1656,29 @@
       <selection activeCell="A34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.265625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="52" customWidth="1"/>
-    <col min="3" max="58" width="9.1328125" style="52"/>
-    <col min="59" max="59" width="14.86328125" style="52" customWidth="1"/>
-    <col min="60" max="60" width="22.3984375" style="52" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.1328125" style="52"/>
-    <col min="63" max="63" width="9.86328125" style="52" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="52" customWidth="1"/>
+    <col min="3" max="58" width="9.140625" style="52"/>
+    <col min="59" max="59" width="14.85546875" style="52" customWidth="1"/>
+    <col min="60" max="60" width="22.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.140625" style="52"/>
+    <col min="63" max="63" width="9.85546875" style="52" customWidth="1"/>
     <col min="64" max="88" width="9" style="2" customWidth="1"/>
-    <col min="89" max="89" width="9.1328125" style="52"/>
-    <col min="90" max="90" width="17.265625" style="52" customWidth="1"/>
-    <col min="91" max="91" width="21.1328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.265625" style="52" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.265625" style="80" customWidth="1"/>
-    <col min="94" max="94" width="8.86328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.1328125" style="52"/>
-    <col min="96" max="119" width="8.86328125" style="2" customWidth="1"/>
-    <col min="120" max="16384" width="9.1328125" style="52"/>
+    <col min="89" max="89" width="9.140625" style="52"/>
+    <col min="90" max="90" width="17.28515625" style="52" customWidth="1"/>
+    <col min="91" max="91" width="21.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.28515625" style="80" customWidth="1"/>
+    <col min="94" max="94" width="8.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.140625" style="52"/>
+    <col min="96" max="119" width="8.85546875" style="2" customWidth="1"/>
+    <col min="120" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -1731,7 +1740,7 @@
       <c r="BC1" s="35"/>
       <c r="BD1" s="33"/>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
@@ -1796,7 +1805,7 @@
       <c r="BC2" s="86"/>
       <c r="BD2" s="32"/>
     </row>
-    <row r="3" spans="1:119" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:119" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="48">
@@ -1963,7 +1972,7 @@
       <c r="CL3" s="71"/>
       <c r="CM3" s="72"/>
     </row>
-    <row r="4" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="45"/>
@@ -2026,7 +2035,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="17"/>
       <c r="C5" s="42"/>
@@ -2263,7 +2272,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
@@ -2665,7 +2674,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -3067,7 +3076,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>1.4761904761904763</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -3871,7 +3880,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -4273,7 +4282,7 @@
         <v>8.720930232558139</v>
       </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -4675,7 +4684,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -5077,7 +5086,7 @@
         <v>2.8246554326589375</v>
       </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
@@ -5479,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
@@ -5881,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>44</v>
       </c>
@@ -6283,7 +6292,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>45</v>
       </c>
@@ -6685,7 +6694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>46</v>
       </c>
@@ -7087,7 +7096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
@@ -7489,7 +7498,7 @@
         <v>19.01805954934806</v>
       </c>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>48</v>
       </c>
@@ -7891,7 +7900,7 @@
         <v>21.5614014897169</v>
       </c>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
@@ -8294,7 +8303,7 @@
         <v>4.6880473492782269</v>
       </c>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>51</v>
       </c>
@@ -8696,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -8708,7 +8717,7 @@
       <c r="BD22" s="32"/>
       <c r="CO22" s="81"/>
     </row>
-    <row r="23" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -8718,7 +8727,7 @@
       <c r="BD23" s="32"/>
       <c r="CO23" s="81"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
@@ -8785,7 +8794,7 @@
       <c r="BG24" s="51"/>
       <c r="CO24" s="81"/>
     </row>
-    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="40">
@@ -8953,7 +8962,7 @@
       <c r="CM25" s="72"/>
       <c r="CO25" s="81"/>
     </row>
-    <row r="26" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -9017,7 +9026,7 @@
       </c>
       <c r="CO26" s="81"/>
     </row>
-    <row r="27" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="17"/>
       <c r="C27" s="42"/>
@@ -9254,7 +9263,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>56</v>
       </c>
@@ -9656,7 +9665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -10058,7 +10067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -10460,7 +10469,7 @@
         <v>2.7414965986394559</v>
       </c>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>59</v>
       </c>
@@ -10860,7 +10869,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
@@ -11262,7 +11271,7 @@
         <v>10.174418604651162</v>
       </c>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
@@ -11664,7 +11673,7 @@
         <v>22.388888888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
@@ -12066,7 +12075,7 @@
         <v>4.2369831489884069</v>
       </c>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
@@ -12468,7 +12477,7 @@
         <v>4.3634210960160313</v>
       </c>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
@@ -12870,7 +12879,7 @@
         <v>4.1371696317781641</v>
       </c>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>65</v>
       </c>
@@ -13272,7 +13281,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
@@ -13674,7 +13683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>67</v>
       </c>
@@ -14076,7 +14085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
@@ -14478,7 +14487,7 @@
         <v>22.821671459217672</v>
       </c>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>69</v>
       </c>
@@ -14880,7 +14889,7 @@
         <v>31.910874204781013</v>
       </c>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>70</v>
       </c>
@@ -15282,7 +15291,7 @@
         <v>6.0944615540616951</v>
       </c>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>71</v>
       </c>
@@ -15684,11 +15693,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:119" x14ac:dyDescent="0.25">
       <c r="BD44" s="32"/>
       <c r="CO44" s="81"/>
     </row>
-    <row r="45" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="s">
         <v>72</v>
       </c>
@@ -15698,7 +15707,7 @@
       <c r="BD45" s="32"/>
       <c r="CO45" s="81"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>14</v>
       </c>
@@ -15765,7 +15774,7 @@
       <c r="BG46" s="51"/>
       <c r="CO46" s="81"/>
     </row>
-    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40">
@@ -15933,7 +15942,7 @@
       <c r="CM47" s="72"/>
       <c r="CO47" s="81"/>
     </row>
-    <row r="48" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="48"/>
@@ -15997,7 +16006,7 @@
       </c>
       <c r="CO48" s="81"/>
     </row>
-    <row r="49" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="17"/>
       <c r="C49" s="42"/>
@@ -16234,7 +16243,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>74</v>
       </c>
@@ -16636,7 +16645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>75</v>
       </c>
@@ -17038,7 +17047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>76</v>
       </c>
@@ -17440,7 +17449,7 @@
         <v>5.2721088435374153</v>
       </c>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>77</v>
       </c>
@@ -17842,7 +17851,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>78</v>
       </c>
@@ -18244,7 +18253,7 @@
         <v>11.046511627906977</v>
       </c>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -18646,7 +18655,7 @@
         <v>27.777777777777775</v>
       </c>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>80</v>
       </c>
@@ -19048,7 +19057,7 @@
         <v>7.0616385816473448</v>
       </c>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>81</v>
       </c>
@@ -19450,7 +19459,7 @@
         <v>9.434423991386014</v>
       </c>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>82</v>
       </c>
@@ -19852,7 +19861,7 @@
         <v>8.9452316362771107</v>
       </c>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>83</v>
       </c>
@@ -20254,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
@@ -20656,7 +20665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>85</v>
       </c>
@@ -21058,7 +21067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>86</v>
       </c>
@@ -21460,7 +21469,7 @@
         <v>28.527089324022089</v>
       </c>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>87</v>
       </c>
@@ -21862,7 +21871,7 @@
         <v>39.888592755976262</v>
       </c>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
@@ -22264,7 +22273,7 @@
         <v>12.18892310812339</v>
       </c>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>89</v>
       </c>
@@ -22666,7 +22675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -22724,7 +22733,7 @@
       <c r="BC66" s="22"/>
       <c r="BD66" s="21"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:119" x14ac:dyDescent="0.25">
       <c r="CJ67" s="66">
         <f>SUM(CJ6:CJ21,CJ28:CJ43,CJ50:CJ65)</f>
         <v>155.46564495117042</v>
@@ -22733,7 +22742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:119" x14ac:dyDescent="0.25">
       <c r="CJ68" s="67">
         <f>CJ67*1000/Conversions!$B$2</f>
         <v>3713233.1363134235</v>
@@ -22764,32 +22773,32 @@
   </sheetPr>
   <dimension ref="A1:DO69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="BG23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BO40" sqref="BO40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.73046875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="52" customWidth="1"/>
     <col min="2" max="2" width="13" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.3984375" style="52" customWidth="1"/>
+    <col min="3" max="12" width="9.42578125" style="52" customWidth="1"/>
     <col min="13" max="28" width="11" style="52" customWidth="1"/>
-    <col min="29" max="58" width="9.1328125" style="52"/>
-    <col min="59" max="59" width="18.265625" style="52" customWidth="1"/>
-    <col min="60" max="60" width="23.59765625" style="52" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.3984375" style="52" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5.73046875" style="52" bestFit="1" customWidth="1"/>
-    <col min="64" max="89" width="9.1328125" style="52"/>
-    <col min="90" max="90" width="17.1328125" style="52" customWidth="1"/>
-    <col min="91" max="91" width="23.59765625" style="52" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.86328125" style="77" customWidth="1"/>
-    <col min="94" max="94" width="9.3984375" style="52" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="9.1328125" style="52"/>
+    <col min="29" max="58" width="9.140625" style="52"/>
+    <col min="59" max="59" width="18.28515625" style="52" customWidth="1"/>
+    <col min="60" max="60" width="23.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="64" max="89" width="9.140625" style="52"/>
+    <col min="90" max="90" width="17.140625" style="52" customWidth="1"/>
+    <col min="91" max="91" width="23.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.85546875" style="77" customWidth="1"/>
+    <col min="94" max="94" width="9.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -22851,7 +22860,7 @@
       <c r="BC1" s="35"/>
       <c r="BD1" s="33"/>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
@@ -22916,7 +22925,7 @@
       <c r="BC2" s="86"/>
       <c r="BD2" s="32"/>
     </row>
-    <row r="3" spans="1:119" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:119" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="48">
@@ -23132,7 +23141,7 @@
       <c r="DN3" s="2"/>
       <c r="DO3" s="2"/>
     </row>
-    <row r="4" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="45"/>
@@ -23244,7 +23253,7 @@
       <c r="DN4" s="2"/>
       <c r="DO4" s="2"/>
     </row>
-    <row r="5" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="17"/>
       <c r="C5" s="42"/>
@@ -23481,7 +23490,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
@@ -23645,10 +23654,10 @@
         <v>144.44460000000001</v>
       </c>
       <c r="BD6" s="32"/>
-      <c r="BE6" s="52">
+      <c r="BE6" s="80">
         <v>1</v>
       </c>
-      <c r="BG6" s="52" t="str">
+      <c r="BG6" s="80" t="str">
         <f>"ABIOFRSR"&amp;BE6</f>
         <v>ABIOFRSR1</v>
       </c>
@@ -23883,7 +23892,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -24047,12 +24056,12 @@
         <v>104.67</v>
       </c>
       <c r="BD7" s="32"/>
-      <c r="BE7" s="52">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="52" t="str">
+      <c r="BE7" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG7" s="80" t="str">
         <f>"MINBIOWOO1"&amp;BE7</f>
-        <v>MINBIOWOO11</v>
+        <v>MINBIOWOO1_S1</v>
       </c>
       <c r="BH7" s="52" t="str">
         <f t="shared" ref="BH7:BH21" si="3">A7</f>
@@ -24169,7 +24178,7 @@
       </c>
       <c r="CL7" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOWOO11</v>
+        <v>MINBIOWOO1_S1</v>
       </c>
       <c r="CM7" s="52" t="str">
         <f t="shared" si="1"/>
@@ -24285,7 +24294,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -24449,12 +24458,12 @@
         <v>61.805142857142862</v>
       </c>
       <c r="BD8" s="32"/>
-      <c r="BE8" s="52">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="52" t="str">
+      <c r="BE8" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG8" s="80" t="str">
         <f>"MINBIOWOO2"&amp;BE8</f>
-        <v>MINBIOWOO21</v>
+        <v>MINBIOWOO2_S1</v>
       </c>
       <c r="BH8" s="52" t="str">
         <f t="shared" si="3"/>
@@ -24571,7 +24580,7 @@
       </c>
       <c r="CL8" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOWOO21</v>
+        <v>MINBIOWOO2_S1</v>
       </c>
       <c r="CM8" s="52" t="str">
         <f t="shared" si="1"/>
@@ -24687,7 +24696,7 @@
         <v>1.4761904761904763</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -24851,12 +24860,12 @@
         <v>-610</v>
       </c>
       <c r="BD9" s="32"/>
-      <c r="BE9" s="52">
-        <v>1</v>
-      </c>
-      <c r="BG9" s="52" t="str">
+      <c r="BE9" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG9" s="80" t="str">
         <f>"MINBIOMSW1"&amp;BE9</f>
-        <v>MINBIOMSW11</v>
+        <v>MINBIOMSW1_S1</v>
       </c>
       <c r="BH9" s="52" t="str">
         <f t="shared" si="3"/>
@@ -24973,7 +24982,7 @@
       </c>
       <c r="CL9" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOMSW11</v>
+        <v>MINBIOMSW1_S1</v>
       </c>
       <c r="CM9" s="52" t="str">
         <f t="shared" si="1"/>
@@ -25089,7 +25098,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -25253,12 +25262,12 @@
         <v>365.12790697674421</v>
       </c>
       <c r="BD10" s="32"/>
-      <c r="BE10" s="52">
-        <v>1</v>
-      </c>
-      <c r="BG10" s="52" t="str">
-        <f>"MINBIOAGRW4"&amp;BE10</f>
-        <v>MINBIOAGRW41</v>
+      <c r="BE10" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG10" s="80" t="str">
+        <f>"MINBIOTLW"&amp;BE10</f>
+        <v>MINBIOTLW_S1</v>
       </c>
       <c r="BH10" s="52" t="str">
         <f t="shared" si="3"/>
@@ -25375,7 +25384,7 @@
       </c>
       <c r="CL10" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOAGRW41</v>
+        <v>MINBIOTLW_S1</v>
       </c>
       <c r="CM10" s="52" t="str">
         <f t="shared" si="1"/>
@@ -25491,7 +25500,7 @@
         <v>8.720930232558139</v>
       </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -25655,12 +25664,12 @@
         <v>648.95400000000006</v>
       </c>
       <c r="BD11" s="32"/>
-      <c r="BE11" s="52">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="52" t="str">
+      <c r="BE11" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG11" s="80" t="str">
         <f>"MINBIORVO"&amp;BE11</f>
-        <v>MINBIORVO1</v>
+        <v>MINBIORVO_S1</v>
       </c>
       <c r="BH11" s="52" t="str">
         <f t="shared" si="3"/>
@@ -25777,7 +25786,7 @@
       </c>
       <c r="CL11" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIORVO1</v>
+        <v>MINBIORVO_S1</v>
       </c>
       <c r="CM11" s="52" t="str">
         <f t="shared" si="1"/>
@@ -25893,7 +25902,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -26057,12 +26066,12 @@
         <v>118.26267365456441</v>
       </c>
       <c r="BD12" s="32"/>
-      <c r="BE12" s="52">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="52" t="str">
-        <f>"MINBIOAGRW1"&amp;BE12</f>
-        <v>MINBIOAGRW11</v>
+      <c r="BE12" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG12" s="80" t="str">
+        <f>"MINBIOWOO3"&amp;BE12</f>
+        <v>MINBIOWOO3_S1</v>
       </c>
       <c r="BH12" s="52" t="str">
         <f t="shared" si="3"/>
@@ -26179,7 +26188,7 @@
       </c>
       <c r="CL12" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOAGRW11</v>
+        <v>MINBIOWOO3_S1</v>
       </c>
       <c r="CM12" s="52" t="str">
         <f t="shared" si="1"/>
@@ -26295,7 +26304,7 @@
         <v>2.8246554326589375</v>
       </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
@@ -26459,12 +26468,12 @@
         <v>0</v>
       </c>
       <c r="BD13" s="32"/>
-      <c r="BE13" s="52">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="52" t="str">
-        <f>"MINBIOAGRW2"&amp;BE13</f>
-        <v>MINBIOAGRW21</v>
+      <c r="BE13" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG13" s="80" t="str">
+        <f>"MINBIOCATW"&amp;BE13</f>
+        <v>MINBIOCATW_S1</v>
       </c>
       <c r="BH13" s="52" t="str">
         <f t="shared" si="3"/>
@@ -26581,7 +26590,7 @@
       </c>
       <c r="CL13" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOAGRW21</v>
+        <v>MINBIOCATW_S1</v>
       </c>
       <c r="CM13" s="52" t="str">
         <f t="shared" si="1"/>
@@ -26697,7 +26706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
@@ -26861,12 +26870,12 @@
         <v>0</v>
       </c>
       <c r="BD14" s="32"/>
-      <c r="BE14" s="52">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="52" t="str">
-        <f>"MINBIOAGRW3"&amp;BE14</f>
-        <v>MINBIOAGRW31</v>
+      <c r="BE14" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG14" s="80" t="str">
+        <f>"MINBIOPIGW"&amp;BE14</f>
+        <v>MINBIOPIGW_S1</v>
       </c>
       <c r="BH14" s="52" t="str">
         <f t="shared" si="3"/>
@@ -26983,7 +26992,7 @@
       </c>
       <c r="CL14" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOAGRW31</v>
+        <v>MINBIOPIGW_S1</v>
       </c>
       <c r="CM14" s="52" t="str">
         <f t="shared" si="1"/>
@@ -27099,7 +27108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>44</v>
       </c>
@@ -27263,12 +27272,12 @@
         <v>-1274.2434782608698</v>
       </c>
       <c r="BD15" s="32"/>
-      <c r="BE15" s="52">
-        <v>1</v>
-      </c>
-      <c r="BG15" s="52" t="str">
+      <c r="BE15" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG15" s="80" t="str">
         <f>"MINBIOMSW2"&amp;BE15</f>
-        <v>MINBIOMSW21</v>
+        <v>MINBIOMSW2_S1</v>
       </c>
       <c r="BH15" s="52" t="str">
         <f t="shared" si="3"/>
@@ -27385,7 +27394,7 @@
       </c>
       <c r="CL15" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOMSW21</v>
+        <v>MINBIOMSW2_S1</v>
       </c>
       <c r="CM15" s="52" t="str">
         <f t="shared" si="1"/>
@@ -27501,7 +27510,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>45</v>
       </c>
@@ -27665,10 +27674,10 @@
         <v>167.47200000000001</v>
       </c>
       <c r="BD16" s="32"/>
-      <c r="BE16" s="52">
+      <c r="BE16" s="80">
         <v>1</v>
       </c>
-      <c r="BG16" s="52" t="str">
+      <c r="BG16" s="80" t="str">
         <f>"ABIOCRP4"&amp;BE16</f>
         <v>ABIOCRP41</v>
       </c>
@@ -27903,7 +27912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>46</v>
       </c>
@@ -28067,10 +28076,10 @@
         <v>167.47200000000001</v>
       </c>
       <c r="BD17" s="32"/>
-      <c r="BE17" s="52">
+      <c r="BE17" s="80">
         <v>1</v>
       </c>
-      <c r="BG17" s="52" t="str">
+      <c r="BG17" s="80" t="str">
         <f>"ABIOCRP3"&amp;BE17</f>
         <v>ABIOCRP31</v>
       </c>
@@ -28305,7 +28314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
@@ -28469,10 +28478,10 @@
         <v>796.2481172121046</v>
       </c>
       <c r="BD18" s="32"/>
-      <c r="BE18" s="52">
+      <c r="BE18" s="80">
         <v>1</v>
       </c>
-      <c r="BG18" s="52" t="str">
+      <c r="BG18" s="80" t="str">
         <f>"ABIOCRP1"&amp;BE18</f>
         <v>ABIOCRP11</v>
       </c>
@@ -28707,7 +28716,7 @@
         <v>19.01805954934806</v>
       </c>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>48</v>
       </c>
@@ -28871,10 +28880,10 @@
         <v>902.73275757146723</v>
       </c>
       <c r="BD19" s="32"/>
-      <c r="BE19" s="52">
+      <c r="BE19" s="80">
         <v>1</v>
       </c>
-      <c r="BG19" s="52" t="str">
+      <c r="BG19" s="80" t="str">
         <f>"ABIOCRP2"&amp;BE19</f>
         <v>ABIOCRP21</v>
       </c>
@@ -29109,7 +29118,7 @@
         <v>21.5614014897169</v>
       </c>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
@@ -29273,10 +29282,10 @@
         <v>196.2791664195808</v>
       </c>
       <c r="BD20" s="32"/>
-      <c r="BE20" s="52">
+      <c r="BE20" s="80">
         <v>1</v>
       </c>
-      <c r="BG20" s="52" t="str">
+      <c r="BG20" s="80" t="str">
         <f>"ABIOGAS1"&amp;BE20</f>
         <v>ABIOGAS11</v>
       </c>
@@ -29511,7 +29520,7 @@
         <v>4.6880473492782269</v>
       </c>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>51</v>
       </c>
@@ -29675,12 +29684,12 @@
         <v>0</v>
       </c>
       <c r="BD21" s="32"/>
-      <c r="BE21" s="52">
-        <v>1</v>
-      </c>
-      <c r="BG21" s="52" t="str">
-        <f>"MINBIOINDW1"&amp;BE21</f>
-        <v>MINBIOINDW11</v>
+      <c r="BE21" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG21" s="80" t="str">
+        <f>"MINBIOINDF"&amp;BE21</f>
+        <v>MINBIOINDF_S1</v>
       </c>
       <c r="BH21" s="52" t="str">
         <f t="shared" si="3"/>
@@ -29797,7 +29806,7 @@
       </c>
       <c r="CL21" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOINDW11</v>
+        <v>MINBIOINDF_S1</v>
       </c>
       <c r="CM21" s="52" t="str">
         <f t="shared" si="1"/>
@@ -29913,7 +29922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="70">
@@ -30021,6 +30030,7 @@
         <v>1355198.4455776999</v>
       </c>
       <c r="BD22" s="32"/>
+      <c r="BE22" s="80"/>
       <c r="BL22" s="2"/>
       <c r="BM22" s="2"/>
       <c r="BN22" s="2"/>
@@ -30072,7 +30082,7 @@
       <c r="DN22" s="2"/>
       <c r="DO22" s="2"/>
     </row>
-    <row r="23" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -30084,6 +30094,7 @@
         <v>54</v>
       </c>
       <c r="BD23" s="32"/>
+      <c r="BE23" s="80"/>
       <c r="BL23" s="2"/>
       <c r="BM23" s="2"/>
       <c r="BN23" s="2"/>
@@ -30135,7 +30146,7 @@
       <c r="DN23" s="2"/>
       <c r="DO23" s="2"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
@@ -30199,6 +30210,7 @@
       <c r="BB24" s="88"/>
       <c r="BC24" s="89"/>
       <c r="BD24" s="32"/>
+      <c r="BE24" s="80"/>
       <c r="BG24" s="51"/>
       <c r="BL24" s="2"/>
       <c r="BM24" s="2"/>
@@ -30251,7 +30263,7 @@
       <c r="DN24" s="2"/>
       <c r="DO24" s="2"/>
     </row>
-    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="40">
@@ -30411,6 +30423,7 @@
         <v>2035</v>
       </c>
       <c r="BD25" s="32"/>
+      <c r="BE25" s="80"/>
       <c r="BG25" s="18" t="s">
         <v>94</v>
       </c>
@@ -30468,7 +30481,7 @@
       <c r="DN25" s="2"/>
       <c r="DO25" s="2"/>
     </row>
-    <row r="26" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -30524,6 +30537,7 @@
       <c r="BB26" s="47"/>
       <c r="BC26" s="46"/>
       <c r="BD26" s="32"/>
+      <c r="BE26" s="80"/>
       <c r="BG26" s="31" t="s">
         <v>90</v>
       </c>
@@ -30581,7 +30595,7 @@
       <c r="DN26" s="2"/>
       <c r="DO26" s="2"/>
     </row>
-    <row r="27" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="17"/>
       <c r="C27" s="42"/>
@@ -30637,6 +30651,7 @@
       <c r="BB27" s="42"/>
       <c r="BC27" s="42"/>
       <c r="BD27" s="32"/>
+      <c r="BE27" s="80"/>
       <c r="BG27" s="29" t="s">
         <v>4</v>
       </c>
@@ -30818,7 +30833,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>56</v>
       </c>
@@ -30982,10 +30997,10 @@
         <v>209.34</v>
       </c>
       <c r="BD28" s="32"/>
-      <c r="BE28" s="52">
+      <c r="BE28" s="80">
         <v>2</v>
       </c>
-      <c r="BG28" s="52" t="str">
+      <c r="BG28" s="80" t="str">
         <f>"ABIOFRSR"&amp;BE28</f>
         <v>ABIOFRSR2</v>
       </c>
@@ -31220,7 +31235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -31384,12 +31399,12 @@
         <v>293.07600000000002</v>
       </c>
       <c r="BD29" s="32"/>
-      <c r="BE29" s="52">
-        <v>2</v>
-      </c>
-      <c r="BG29" s="52" t="str">
+      <c r="BE29" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG29" s="80" t="str">
         <f>"MINBIOWOO1"&amp;BE29</f>
-        <v>MINBIOWOO12</v>
+        <v>MINBIOWOO1_S2</v>
       </c>
       <c r="BH29" s="52" t="str">
         <f t="shared" ref="BH29:BH43" si="8">A29</f>
@@ -31506,7 +31521,7 @@
       </c>
       <c r="CL29" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>MINBIOWOO12</v>
+        <v>MINBIOWOO1_S2</v>
       </c>
       <c r="CM29" s="52" t="str">
         <f t="shared" si="6"/>
@@ -31622,7 +31637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -31786,12 +31801,12 @@
         <v>114.78097959183674</v>
       </c>
       <c r="BD30" s="32"/>
-      <c r="BE30" s="52">
-        <v>2</v>
-      </c>
-      <c r="BG30" s="52" t="str">
+      <c r="BE30" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG30" s="80" t="str">
         <f>"MINBIOWOO2"&amp;BE30</f>
-        <v>MINBIOWOO22</v>
+        <v>MINBIOWOO2_S2</v>
       </c>
       <c r="BH30" s="52" t="str">
         <f t="shared" si="8"/>
@@ -31908,7 +31923,7 @@
       </c>
       <c r="CL30" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>MINBIOWOO22</v>
+        <v>MINBIOWOO2_S2</v>
       </c>
       <c r="CM30" s="52" t="str">
         <f t="shared" si="6"/>
@@ -32024,7 +32039,7 @@
         <v>2.7414965986394559</v>
       </c>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>59</v>
       </c>
@@ -32186,12 +32201,12 @@
         <v>-510</v>
       </c>
       <c r="BD31" s="32"/>
-      <c r="BE31" s="52">
-        <v>2</v>
-      </c>
-      <c r="BG31" s="52" t="str">
+      <c r="BE31" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG31" s="80" t="str">
         <f>"MINBIOMSW1"&amp;BE31</f>
-        <v>MINBIOMSW12</v>
+        <v>MINBIOMSW1_S2</v>
       </c>
       <c r="BH31" s="52" t="str">
         <f t="shared" si="8"/>
@@ -32308,7 +32323,7 @@
       </c>
       <c r="CL31" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>MINBIOMSW12</v>
+        <v>MINBIOMSW1_S2</v>
       </c>
       <c r="CM31" s="52" t="str">
         <f t="shared" si="6"/>
@@ -32424,7 +32439,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
@@ -32588,12 +32603,12 @@
         <v>425.98255813953489</v>
       </c>
       <c r="BD32" s="32"/>
-      <c r="BE32" s="52">
-        <v>2</v>
-      </c>
-      <c r="BG32" s="52" t="str">
-        <f>"MINBIOAGRW4"&amp;BE32</f>
-        <v>MINBIOAGRW42</v>
+      <c r="BE32" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG32" s="80" t="str">
+        <f>"MINBIOTLW"&amp;BE32</f>
+        <v>MINBIOTLW_S2</v>
       </c>
       <c r="BH32" s="52" t="str">
         <f t="shared" si="8"/>
@@ -32710,7 +32725,7 @@
       </c>
       <c r="CL32" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>MINBIOAGRW42</v>
+        <v>MINBIOTLW_S2</v>
       </c>
       <c r="CM32" s="52" t="str">
         <f t="shared" si="6"/>
@@ -32826,7 +32841,7 @@
         <v>10.174418604651162</v>
       </c>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
@@ -32990,12 +33005,12 @@
         <v>937.37800000000004</v>
       </c>
       <c r="BD33" s="32"/>
-      <c r="BE33" s="52">
-        <v>2</v>
-      </c>
-      <c r="BG33" s="52" t="str">
+      <c r="BE33" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG33" s="80" t="str">
         <f>"MINBIORVO"&amp;BE33</f>
-        <v>MINBIORVO2</v>
+        <v>MINBIORVO_S2</v>
       </c>
       <c r="BH33" s="52" t="str">
         <f t="shared" si="8"/>
@@ -33112,7 +33127,7 @@
       </c>
       <c r="CL33" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>MINBIORVO2</v>
+        <v>MINBIORVO_S2</v>
       </c>
       <c r="CM33" s="52" t="str">
         <f t="shared" si="6"/>
@@ -33228,7 +33243,7 @@
         <v>22.388888888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
@@ -33392,12 +33407,12 @@
         <v>177.39401048184664</v>
       </c>
       <c r="BD34" s="32"/>
-      <c r="BE34" s="52">
-        <v>2</v>
-      </c>
-      <c r="BG34" s="52" t="str">
-        <f>"MINBIOAGRW1"&amp;BE34</f>
-        <v>MINBIOAGRW12</v>
+      <c r="BE34" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG34" s="80" t="str">
+        <f>"MINBIOWOO3"&amp;BE34</f>
+        <v>MINBIOWOO3_S2</v>
       </c>
       <c r="BH34" s="52" t="str">
         <f t="shared" si="8"/>
@@ -33514,7 +33529,7 @@
       </c>
       <c r="CL34" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>MINBIOAGRW12</v>
+        <v>MINBIOWOO3_S2</v>
       </c>
       <c r="CM34" s="52" t="str">
         <f t="shared" si="6"/>
@@ -33630,7 +33645,7 @@
         <v>4.2369831489884069</v>
       </c>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
@@ -33794,12 +33809,12 @@
         <v>182.68771444799921</v>
       </c>
       <c r="BD35" s="32"/>
-      <c r="BE35" s="52">
-        <v>2</v>
-      </c>
-      <c r="BG35" s="52" t="str">
-        <f>"MINBIOAGRW2"&amp;BE35</f>
-        <v>MINBIOAGRW22</v>
+      <c r="BE35" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG35" s="80" t="str">
+        <f>"MINBIOCATW"&amp;BE35</f>
+        <v>MINBIOCATW_S2</v>
       </c>
       <c r="BH35" s="52" t="str">
         <f t="shared" si="8"/>
@@ -33916,7 +33931,7 @@
       </c>
       <c r="CL35" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>MINBIOAGRW22</v>
+        <v>MINBIOCATW_S2</v>
       </c>
       <c r="CM35" s="52" t="str">
         <f t="shared" si="6"/>
@@ -34032,7 +34047,7 @@
         <v>4.3634210960160313</v>
       </c>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
@@ -34196,12 +34211,12 @@
         <v>173.21501814328818</v>
       </c>
       <c r="BD36" s="32"/>
-      <c r="BE36" s="52">
-        <v>2</v>
-      </c>
-      <c r="BG36" s="52" t="str">
-        <f>"MINBIOAGRW3"&amp;BE36</f>
-        <v>MINBIOAGRW32</v>
+      <c r="BE36" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG36" s="80" t="str">
+        <f>"MINBIOPIGW"&amp;BE36</f>
+        <v>MINBIOPIGW_S2</v>
       </c>
       <c r="BH36" s="52" t="str">
         <f t="shared" si="8"/>
@@ -34318,7 +34333,7 @@
       </c>
       <c r="CL36" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>MINBIOAGRW32</v>
+        <v>MINBIOPIGW_S2</v>
       </c>
       <c r="CM36" s="52" t="str">
         <f t="shared" si="6"/>
@@ -34434,7 +34449,7 @@
         <v>4.1371696317781641</v>
       </c>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>65</v>
       </c>
@@ -34598,12 +34613,12 @@
         <v>-728.13913043478271</v>
       </c>
       <c r="BD37" s="32"/>
-      <c r="BE37" s="52">
-        <v>2</v>
-      </c>
-      <c r="BG37" s="52" t="str">
+      <c r="BE37" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG37" s="80" t="str">
         <f>"MINBIOMSW2"&amp;BE37</f>
-        <v>MINBIOMSW22</v>
+        <v>MINBIOMSW2_S2</v>
       </c>
       <c r="BH37" s="52" t="str">
         <f t="shared" si="8"/>
@@ -34720,7 +34735,7 @@
       </c>
       <c r="CL37" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>MINBIOMSW22</v>
+        <v>MINBIOMSW2_S2</v>
       </c>
       <c r="CM37" s="52" t="str">
         <f t="shared" si="6"/>
@@ -34836,7 +34851,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
@@ -35000,10 +35015,10 @@
         <v>251.20800000000003</v>
       </c>
       <c r="BD38" s="32"/>
-      <c r="BE38" s="52">
+      <c r="BE38" s="80">
         <v>2</v>
       </c>
-      <c r="BG38" s="52" t="str">
+      <c r="BG38" s="80" t="str">
         <f>"ABIOCRP4"&amp;BE38</f>
         <v>ABIOCRP42</v>
       </c>
@@ -35238,7 +35253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>67</v>
       </c>
@@ -35402,10 +35417,10 @@
         <v>251.20800000000003</v>
       </c>
       <c r="BD39" s="32"/>
-      <c r="BE39" s="52">
+      <c r="BE39" s="80">
         <v>2</v>
       </c>
-      <c r="BG39" s="52" t="str">
+      <c r="BG39" s="80" t="str">
         <f>"ABIOCRP3"&amp;BE39</f>
         <v>ABIOCRP32</v>
       </c>
@@ -35640,7 +35655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
@@ -35804,10 +35819,10 @@
         <v>955.4977406545255</v>
       </c>
       <c r="BD40" s="32"/>
-      <c r="BE40" s="52">
+      <c r="BE40" s="80">
         <v>2</v>
       </c>
-      <c r="BG40" s="52" t="str">
+      <c r="BG40" s="80" t="str">
         <f>"ABIOCRP1"&amp;BE40</f>
         <v>ABIOCRP12</v>
       </c>
@@ -36042,7 +36057,7 @@
         <v>22.821671459217672</v>
       </c>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>69</v>
       </c>
@@ -36206,10 +36221,10 @@
         <v>1336.0444812057715</v>
       </c>
       <c r="BD41" s="32"/>
-      <c r="BE41" s="52">
+      <c r="BE41" s="80">
         <v>2</v>
       </c>
-      <c r="BG41" s="52" t="str">
+      <c r="BG41" s="80" t="str">
         <f>"ABIOCRP2"&amp;BE41</f>
         <v>ABIOCRP22</v>
       </c>
@@ -36444,7 +36459,7 @@
         <v>31.910874204781013</v>
       </c>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>70</v>
       </c>
@@ -36608,10 +36623,10 @@
         <v>255.16291634545507</v>
       </c>
       <c r="BD42" s="32"/>
-      <c r="BE42" s="52">
+      <c r="BE42" s="80">
         <v>2</v>
       </c>
-      <c r="BG42" s="52" t="str">
+      <c r="BG42" s="80" t="str">
         <f>"ABIOGAS1"&amp;BE42</f>
         <v>ABIOGAS12</v>
       </c>
@@ -36846,7 +36861,7 @@
         <v>6.0944615540616951</v>
       </c>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>71</v>
       </c>
@@ -37010,12 +37025,12 @@
         <v>0</v>
       </c>
       <c r="BD43" s="32"/>
-      <c r="BE43" s="52">
-        <v>2</v>
-      </c>
-      <c r="BG43" s="52" t="str">
-        <f>"MINBIOINDW1"&amp;BE43</f>
-        <v>MINBIOINDW12</v>
+      <c r="BE43" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG43" s="80" t="str">
+        <f>"MINBIOINDF"&amp;BE43</f>
+        <v>MINBIOINDF_S2</v>
       </c>
       <c r="BH43" s="52" t="str">
         <f t="shared" si="8"/>
@@ -37132,7 +37147,7 @@
       </c>
       <c r="CL43" s="52" t="str">
         <f t="shared" si="5"/>
-        <v>MINBIOINDW12</v>
+        <v>MINBIOINDF_S2</v>
       </c>
       <c r="CM43" s="52" t="str">
         <f t="shared" si="6"/>
@@ -37248,7 +37263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:119" x14ac:dyDescent="0.25">
       <c r="K44" s="20">
         <f>SUM(K28:K43)</f>
         <v>188768.43828488313</v>
@@ -37322,6 +37337,7 @@
         <v>1302462.4248438214</v>
       </c>
       <c r="BD44" s="32"/>
+      <c r="BE44" s="80"/>
       <c r="BL44" s="2"/>
       <c r="BM44" s="2"/>
       <c r="BN44" s="2"/>
@@ -37373,7 +37389,7 @@
       <c r="DN44" s="2"/>
       <c r="DO44" s="2"/>
     </row>
-    <row r="45" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="s">
         <v>72</v>
       </c>
@@ -37385,6 +37401,7 @@
         <v>73</v>
       </c>
       <c r="BD45" s="32"/>
+      <c r="BE45" s="80"/>
       <c r="BL45" s="2"/>
       <c r="BM45" s="2"/>
       <c r="BN45" s="2"/>
@@ -37436,7 +37453,7 @@
       <c r="DN45" s="2"/>
       <c r="DO45" s="2"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>14</v>
       </c>
@@ -37500,6 +37517,7 @@
       <c r="BB46" s="88"/>
       <c r="BC46" s="89"/>
       <c r="BD46" s="32"/>
+      <c r="BE46" s="80"/>
       <c r="BG46" s="51"/>
       <c r="BL46" s="2"/>
       <c r="BM46" s="2"/>
@@ -37552,7 +37570,7 @@
       <c r="DN46" s="2"/>
       <c r="DO46" s="2"/>
     </row>
-    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40">
@@ -37712,6 +37730,7 @@
         <v>2035</v>
       </c>
       <c r="BD47" s="32"/>
+      <c r="BE47" s="80"/>
       <c r="BG47" s="18" t="s">
         <v>95</v>
       </c>
@@ -37769,7 +37788,7 @@
       <c r="DN47" s="2"/>
       <c r="DO47" s="2"/>
     </row>
-    <row r="48" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="48"/>
@@ -37825,6 +37844,7 @@
       <c r="BB48" s="47"/>
       <c r="BC48" s="46"/>
       <c r="BD48" s="32"/>
+      <c r="BE48" s="80"/>
       <c r="BG48" s="31" t="s">
         <v>90</v>
       </c>
@@ -37882,7 +37902,7 @@
       <c r="DN48" s="2"/>
       <c r="DO48" s="2"/>
     </row>
-    <row r="49" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="17"/>
       <c r="C49" s="42"/>
@@ -37938,6 +37958,7 @@
       <c r="BB49" s="42"/>
       <c r="BC49" s="42"/>
       <c r="BD49" s="32"/>
+      <c r="BE49" s="80"/>
       <c r="BG49" s="29" t="s">
         <v>4</v>
       </c>
@@ -38119,7 +38140,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>74</v>
       </c>
@@ -38283,10 +38304,10 @@
         <v>334.94400000000002</v>
       </c>
       <c r="BD50" s="32"/>
-      <c r="BE50" s="52">
+      <c r="BE50" s="80">
         <v>3</v>
       </c>
-      <c r="BG50" s="52" t="str">
+      <c r="BG50" s="80" t="str">
         <f>"ABIOFRSR"&amp;BE50</f>
         <v>ABIOFRSR3</v>
       </c>
@@ -38521,7 +38542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>75</v>
       </c>
@@ -38685,12 +38706,12 @@
         <v>376.81200000000001</v>
       </c>
       <c r="BD51" s="32"/>
-      <c r="BE51" s="52">
-        <v>3</v>
-      </c>
-      <c r="BG51" s="52" t="str">
+      <c r="BE51" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG51" s="80" t="str">
         <f>"MINBIOWOO1"&amp;BE51</f>
-        <v>MINBIOWOO13</v>
+        <v>MINBIOWOO1_S3</v>
       </c>
       <c r="BH51" s="52" t="str">
         <f t="shared" ref="BH51:BH65" si="13">A51</f>
@@ -38807,7 +38828,7 @@
       </c>
       <c r="CL51" s="52" t="str">
         <f t="shared" si="10"/>
-        <v>MINBIOWOO13</v>
+        <v>MINBIOWOO1_S3</v>
       </c>
       <c r="CM51" s="52" t="str">
         <f t="shared" si="11"/>
@@ -38923,7 +38944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>76</v>
       </c>
@@ -39087,12 +39108,12 @@
         <v>220.73265306122451</v>
       </c>
       <c r="BD52" s="32"/>
-      <c r="BE52" s="52">
-        <v>3</v>
-      </c>
-      <c r="BG52" s="52" t="str">
+      <c r="BE52" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG52" s="80" t="str">
         <f>"MINBIOWOO2"&amp;BE52</f>
-        <v>MINBIOWOO23</v>
+        <v>MINBIOWOO2_S3</v>
       </c>
       <c r="BH52" s="52" t="str">
         <f t="shared" si="13"/>
@@ -39209,7 +39230,7 @@
       </c>
       <c r="CL52" s="52" t="str">
         <f t="shared" si="10"/>
-        <v>MINBIOWOO23</v>
+        <v>MINBIOWOO2_S3</v>
       </c>
       <c r="CM52" s="52" t="str">
         <f t="shared" si="11"/>
@@ -39325,7 +39346,7 @@
         <v>5.2721088435374153</v>
       </c>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>77</v>
       </c>
@@ -39489,12 +39510,12 @@
         <v>-370</v>
       </c>
       <c r="BD53" s="32"/>
-      <c r="BE53" s="52">
-        <v>3</v>
-      </c>
-      <c r="BG53" s="52" t="str">
+      <c r="BE53" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG53" s="80" t="str">
         <f>"MINBIOMSW1"&amp;BE53</f>
-        <v>MINBIOMSW13</v>
+        <v>MINBIOMSW1_S3</v>
       </c>
       <c r="BH53" s="52" t="str">
         <f t="shared" si="13"/>
@@ -39611,7 +39632,7 @@
       </c>
       <c r="CL53" s="52" t="str">
         <f t="shared" si="10"/>
-        <v>MINBIOMSW13</v>
+        <v>MINBIOMSW1_S3</v>
       </c>
       <c r="CM53" s="52" t="str">
         <f t="shared" si="11"/>
@@ -39727,7 +39748,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>78</v>
       </c>
@@ -39891,12 +39912,12 @@
         <v>462.49534883720935</v>
       </c>
       <c r="BD54" s="32"/>
-      <c r="BE54" s="52">
-        <v>3</v>
-      </c>
-      <c r="BG54" s="52" t="str">
-        <f>"MINBIOAGRW4"&amp;BE54</f>
-        <v>MINBIOAGRW43</v>
+      <c r="BE54" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG54" s="80" t="str">
+        <f>"MINBIOTLW"&amp;BE54</f>
+        <v>MINBIOTLW_S3</v>
       </c>
       <c r="BH54" s="52" t="str">
         <f t="shared" si="13"/>
@@ -40013,7 +40034,7 @@
       </c>
       <c r="CL54" s="52" t="str">
         <f t="shared" si="10"/>
-        <v>MINBIOAGRW43</v>
+        <v>MINBIOTLW_S3</v>
       </c>
       <c r="CM54" s="52" t="str">
         <f t="shared" si="11"/>
@@ -40129,7 +40150,7 @@
         <v>11.046511627906977</v>
       </c>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -40293,12 +40314,12 @@
         <v>1163</v>
       </c>
       <c r="BD55" s="32"/>
-      <c r="BE55" s="52">
-        <v>3</v>
-      </c>
-      <c r="BG55" s="52" t="str">
+      <c r="BE55" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG55" s="80" t="str">
         <f>"MINBIORVO"&amp;BE55</f>
-        <v>MINBIORVO3</v>
+        <v>MINBIORVO_S3</v>
       </c>
       <c r="BH55" s="52" t="str">
         <f t="shared" si="13"/>
@@ -40415,7 +40436,7 @@
       </c>
       <c r="CL55" s="52" t="str">
         <f t="shared" si="10"/>
-        <v>MINBIORVO3</v>
+        <v>MINBIORVO_S3</v>
       </c>
       <c r="CM55" s="52" t="str">
         <f t="shared" si="11"/>
@@ -40531,7 +40552,7 @@
         <v>27.777777777777775</v>
       </c>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>80</v>
       </c>
@@ -40695,12 +40716,12 @@
         <v>295.65668413641106</v>
       </c>
       <c r="BD56" s="32"/>
-      <c r="BE56" s="52">
-        <v>3</v>
-      </c>
-      <c r="BG56" s="52" t="str">
-        <f>"MINBIOAGRW1"&amp;BE56</f>
-        <v>MINBIOAGRW13</v>
+      <c r="BE56" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG56" s="80" t="str">
+        <f>"MINBIOWOO3"&amp;BE56</f>
+        <v>MINBIOWOO3_S3</v>
       </c>
       <c r="BH56" s="52" t="str">
         <f t="shared" si="13"/>
@@ -40817,7 +40838,7 @@
       </c>
       <c r="CL56" s="52" t="str">
         <f t="shared" si="10"/>
-        <v>MINBIOAGRW13</v>
+        <v>MINBIOWOO3_S3</v>
       </c>
       <c r="CM56" s="52" t="str">
         <f t="shared" si="11"/>
@@ -40933,7 +40954,7 @@
         <v>7.0616385816473448</v>
       </c>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>81</v>
       </c>
@@ -41097,12 +41118,12 @@
         <v>395.00046367134962</v>
       </c>
       <c r="BD57" s="32"/>
-      <c r="BE57" s="52">
-        <v>3</v>
-      </c>
-      <c r="BG57" s="52" t="str">
-        <f>"MINBIOAGRW2"&amp;BE57</f>
-        <v>MINBIOAGRW23</v>
+      <c r="BE57" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG57" s="80" t="str">
+        <f>"MINBIOCATW"&amp;BE57</f>
+        <v>MINBIOCATW_S3</v>
       </c>
       <c r="BH57" s="52" t="str">
         <f t="shared" si="13"/>
@@ -41219,7 +41240,7 @@
       </c>
       <c r="CL57" s="52" t="str">
         <f t="shared" si="10"/>
-        <v>MINBIOAGRW23</v>
+        <v>MINBIOCATW_S3</v>
       </c>
       <c r="CM57" s="52" t="str">
         <f t="shared" si="11"/>
@@ -41335,7 +41356,7 @@
         <v>9.434423991386014</v>
       </c>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>82</v>
       </c>
@@ -41499,12 +41520,12 @@
         <v>374.5189581476501</v>
       </c>
       <c r="BD58" s="32"/>
-      <c r="BE58" s="52">
-        <v>3</v>
-      </c>
-      <c r="BG58" s="52" t="str">
-        <f>"MINBIOAGRW3"&amp;BE58</f>
-        <v>MINBIOAGRW33</v>
+      <c r="BE58" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG58" s="80" t="str">
+        <f>"MINBIOPIGW"&amp;BE58</f>
+        <v>MINBIOPIGW_S3</v>
       </c>
       <c r="BH58" s="52" t="str">
         <f t="shared" si="13"/>
@@ -41621,7 +41642,7 @@
       </c>
       <c r="CL58" s="52" t="str">
         <f t="shared" si="10"/>
-        <v>MINBIOAGRW33</v>
+        <v>MINBIOPIGW_S3</v>
       </c>
       <c r="CM58" s="52" t="str">
         <f t="shared" si="11"/>
@@ -41737,7 +41758,7 @@
         <v>8.9452316362771107</v>
       </c>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>83</v>
       </c>
@@ -41901,12 +41922,12 @@
         <v>0</v>
       </c>
       <c r="BD59" s="32"/>
-      <c r="BE59" s="52">
-        <v>3</v>
-      </c>
-      <c r="BG59" s="52" t="str">
+      <c r="BE59" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG59" s="80" t="str">
         <f>"MINBIOMSW2"&amp;BE59</f>
-        <v>MINBIOMSW23</v>
+        <v>MINBIOMSW2_S3</v>
       </c>
       <c r="BH59" s="52" t="str">
         <f t="shared" si="13"/>
@@ -42023,7 +42044,7 @@
       </c>
       <c r="CL59" s="52" t="str">
         <f t="shared" si="10"/>
-        <v>MINBIOMSW23</v>
+        <v>MINBIOMSW2_S3</v>
       </c>
       <c r="CM59" s="52" t="str">
         <f t="shared" si="11"/>
@@ -42139,7 +42160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
@@ -42303,10 +42324,10 @@
         <v>418.68</v>
       </c>
       <c r="BD60" s="32"/>
-      <c r="BE60" s="52">
+      <c r="BE60" s="80">
         <v>3</v>
       </c>
-      <c r="BG60" s="52" t="str">
+      <c r="BG60" s="80" t="str">
         <f>"ABIOCRP4"&amp;BE60</f>
         <v>ABIOCRP43</v>
       </c>
@@ -42541,7 +42562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>85</v>
       </c>
@@ -42705,10 +42726,10 @@
         <v>418.68</v>
       </c>
       <c r="BD61" s="32"/>
-      <c r="BE61" s="52">
+      <c r="BE61" s="80">
         <v>3</v>
       </c>
-      <c r="BG61" s="52" t="str">
+      <c r="BG61" s="80" t="str">
         <f>"ABIOCRP3"&amp;BE61</f>
         <v>ABIOCRP33</v>
       </c>
@@ -42943,7 +42964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>86</v>
       </c>
@@ -43107,10 +43128,10 @@
         <v>1194.3721758181568</v>
       </c>
       <c r="BD62" s="32"/>
-      <c r="BE62" s="52">
+      <c r="BE62" s="80">
         <v>3</v>
       </c>
-      <c r="BG62" s="52" t="str">
+      <c r="BG62" s="80" t="str">
         <f>"ABIOCRP1"&amp;BE62</f>
         <v>ABIOCRP13</v>
       </c>
@@ -43345,7 +43366,7 @@
         <v>28.527089324022089</v>
       </c>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>87</v>
       </c>
@@ -43509,10 +43530,10 @@
         <v>1670.0556015072143</v>
       </c>
       <c r="BD63" s="32"/>
-      <c r="BE63" s="52">
+      <c r="BE63" s="80">
         <v>3</v>
       </c>
-      <c r="BG63" s="52" t="str">
+      <c r="BG63" s="80" t="str">
         <f>"ABIOCRP2"&amp;BE63</f>
         <v>ABIOCRP23</v>
       </c>
@@ -43747,7 +43768,7 @@
         <v>39.888592755976262</v>
       </c>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
@@ -43911,10 +43932,10 @@
         <v>510.32583269091015</v>
       </c>
       <c r="BD64" s="32"/>
-      <c r="BE64" s="52">
+      <c r="BE64" s="80">
         <v>3</v>
       </c>
-      <c r="BG64" s="52" t="str">
+      <c r="BG64" s="80" t="str">
         <f>"ABIOGAS1"&amp;BE64</f>
         <v>ABIOGAS13</v>
       </c>
@@ -44149,7 +44170,7 @@
         <v>12.18892310812339</v>
       </c>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>89</v>
       </c>
@@ -44313,12 +44334,12 @@
         <v>0</v>
       </c>
       <c r="BD65" s="32"/>
-      <c r="BE65" s="52">
-        <v>3</v>
-      </c>
-      <c r="BG65" s="52" t="str">
-        <f>"MINBIOINDW1"&amp;BE65</f>
-        <v>MINBIOINDW13</v>
+      <c r="BE65" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG65" s="80" t="str">
+        <f>"MINBIOINDF"&amp;BE65</f>
+        <v>MINBIOINDF_S3</v>
       </c>
       <c r="BH65" s="52" t="str">
         <f t="shared" si="13"/>
@@ -44435,7 +44456,7 @@
       </c>
       <c r="CL65" s="52" t="str">
         <f t="shared" si="10"/>
-        <v>MINBIOINDW13</v>
+        <v>MINBIOINDF_S3</v>
       </c>
       <c r="CM65" s="52" t="str">
         <f t="shared" si="11"/>
@@ -44551,7 +44572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -44664,7 +44685,7 @@
       <c r="BD66" s="21"/>
       <c r="CJ66" s="2"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:119" x14ac:dyDescent="0.25">
       <c r="AB67" s="52">
         <f>AB66/1000</f>
         <v>633.22420856007068</v>
@@ -44677,7 +44698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:119" x14ac:dyDescent="0.25">
       <c r="C68" s="69">
         <f>SUM(C50:C65)+SUM(C28:C43)+SUM(C6:C21)</f>
         <v>340691.57291591226</v>
@@ -44790,7 +44811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:119" x14ac:dyDescent="0.25">
       <c r="AB69" s="56">
         <f>AB67+AB45+AB23</f>
         <v>3290.8850789815924</v>
@@ -44819,14 +44840,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="3"/>
+    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
@@ -44834,7 +44855,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>102</v>
       </c>
@@ -44842,12 +44863,12 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
       <c r="B6" s="58" t="s">
         <v>101</v>
@@ -44863,7 +44884,7 @@
       <c r="I6" s="91"/>
       <c r="J6" s="92"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <v>2000</v>
       </c>
@@ -44887,7 +44908,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="62">
         <v>2001</v>
       </c>
@@ -44914,7 +44935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="62">
         <v>2002</v>
       </c>
@@ -44945,7 +44966,7 @@
         <v>106.04453870625663</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
         <v>2003</v>
       </c>
@@ -44976,7 +44997,7 @@
         <v>126.10340479192939</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
         <v>2004</v>
       </c>
@@ -45003,7 +45024,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
         <v>2005</v>
       </c>
@@ -45022,7 +45043,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <v>2006</v>
       </c>
@@ -45034,7 +45055,7 @@
         <v>113.94721389560772</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
         <v>2007</v>
       </c>
@@ -45046,7 +45067,7 @@
         <v>116.6819470291023</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="62">
         <v>2008</v>
       </c>
@@ -45058,7 +45079,7 @@
         <v>120.99917906917909</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
         <v>2009</v>
       </c>
@@ -45070,7 +45091,7 @@
         <v>122.20917085987088</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="62">
         <v>2010</v>
       </c>
@@ -45082,7 +45103,7 @@
         <v>124.77556344792816</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="62">
         <v>2011</v>
       </c>
@@ -45098,7 +45119,7 @@
         <v>0.77734139438083416</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="62">
         <v>2012</v>
       </c>
@@ -45110,7 +45131,7 @@
         <v>131.98833966859911</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="62">
         <v>2013</v>
       </c>
@@ -45122,7 +45143,7 @@
         <v>133.9681647636281</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="62">
         <v>2014</v>
       </c>
@@ -45134,7 +45155,7 @@
         <v>134.63800558744623</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="65">
         <v>2015</v>
       </c>
@@ -45146,7 +45167,7 @@
         <v>134.63800558744623</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>98</v>
       </c>
@@ -45162,6 +45183,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -45307,22 +45343,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82F93EDD-0FEC-481F-BAB6-9C54FA72D22C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C083082B-EF42-45FD-A093-4B4ABFE76D72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E63631BC-E8BC-47EF-A687-5ABCBF5D4D56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45338,21 +45376,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C083082B-EF42-45FD-A093-4B4ABFE76D72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82F93EDD-0FEC-481F-BAB6-9C54FA72D22C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>